--- a/biology/Médecine/Cajetan_von_Textor/Cajetan_von_Textor.xlsx
+++ b/biology/Médecine/Cajetan_von_Textor/Cajetan_von_Textor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cajetan von Textor (né le 28 décembre 1782 dans l'arrondissement d'Ebersberg du district de Haute-Bavière et mort le 7 août 1860) est un médecin chirurgien bavarois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1804 à 1808, il étudie à l'université d'Ingolstadt sous la direction, notamment, de Philipp Franz von Walther (1782–1849). Il perfectionne ses études au cours des années suivantes en Europe, notamment avec Alexis Boyer (1757–1833) à Paris, Antonio Scarpa (1752–1832) en Pavie et Georg Joseph Beer (1763–1821) à Vienne. Il travaille par la suite comme chirurgien à Munich.
 En 1816, il devient professeur et médecin en chef (Oberwundarzt) au Juliusspital et à l'université de Wurtzbourg. En 1832, on lui retire son poste à Wurtzbourg pour des raisons politiques. En 1834, il est réintégré. Parmi ses étudiants les plus connus, on compte Bernhard Heine (1800–1846), inventeur de l'ostéotome (en).
